--- a/biology/Médecine/Mai_al-Kaila/Mai_al-Kaila.xlsx
+++ b/biology/Médecine/Mai_al-Kaila/Mai_al-Kaila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mai Al-Kaila (arabe : مي الكيلة), née le 8 avril 1955, est une médecin, diplomate et femme politique palestinienne et la première femme à occuper le poste de ministre de la Santé de Palestine. Elle est titulaire d'un doctorat en santé publique et en administration de la santé. Elle a présidé le Conseil médical palestinien en sa qualité de ministre de la Santé et fait également partie de l'Autorité palestinienne dirigée par l'actuel Premier ministre, le Dr Mohammad Chtayyeh.
@@ -512,9 +524,11 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mai Salem Hanna al-Kaila est née à Jérusalem le 8 avril 1955. Elle fait ses études de base et préparatoire dans les écoles de Bir Zeit et ses études secondaires au Collège privé de Ramallah. Elle étudie les soins infirmiers à l'hôpital Augusta Victoria de Jérusalem puis la médecine à l'Université de Grenade et obtient une licence avant de se spécialiser dans le domaine de l'obstétrique et de la gynécologie à l'Université de Californie à San Francisco d'où elle ressort titulaire d'une maîtrise[1]. Elle obtient ensuite son doctorat en santé publique et épidémiologie à l'Université du Chili[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mai Salem Hanna al-Kaila est née à Jérusalem le 8 avril 1955. Elle fait ses études de base et préparatoire dans les écoles de Bir Zeit et ses études secondaires au Collège privé de Ramallah. Elle étudie les soins infirmiers à l'hôpital Augusta Victoria de Jérusalem puis la médecine à l'Université de Grenade et obtient une licence avant de se spécialiser dans le domaine de l'obstétrique et de la gynécologie à l'Université de Californie à San Francisco d'où elle ressort titulaire d'une maîtrise. Elle obtient ensuite son doctorat en santé publique et épidémiologie à l'Université du Chili,.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Al-Kaila travaille comme médecin résident à l'hôpital du Croissant-Rouge palestinien à Jérusalem dans le programme d'obstétrique et de gynécologie[2]. Mai al-Kaila promet des emplois et des postes, puisqu'elle travaille comme chargée de cours à l'Université al-Qods au sein du Département de santé publique et à l'UNRWA en tant que responsable du programme de maternité et d'enfance[2].
-En 1994, Mai al-Kaila est nommée dans la délégation palestinienne pour participer à la Conférence mondiale sur les femmes de 1995 à Pékin[4].
-Al-Kaila est nommée ambassadrice de l'État de Palestine au Chili le 31 octobre 2005[5]. Elle continue à occuper ce poste jusqu'à sa nomination comme ambassadrice de l'État de Palestine en Italie le 1er octobre 2013[3],[6],[7]. Le 4 décembre 2016, elle remporte les élections au Conseil révolutionnaire palestinien, qui se tiennent lors de la septième conférence du Fatah, et en devient membre[8].
-Le 13 avril 2019, al-Kaila prête serment devant le président palestinien Mahmoud Abbas en tant que ministre de la Santé au sein du gouvernement de Mohammad Chtayyeh[9]. Elle est la première femme a occuper ce poste[10],[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Kaila travaille comme médecin résident à l'hôpital du Croissant-Rouge palestinien à Jérusalem dans le programme d'obstétrique et de gynécologie. Mai al-Kaila promet des emplois et des postes, puisqu'elle travaille comme chargée de cours à l'Université al-Qods au sein du Département de santé publique et à l'UNRWA en tant que responsable du programme de maternité et d'enfance.
+En 1994, Mai al-Kaila est nommée dans la délégation palestinienne pour participer à la Conférence mondiale sur les femmes de 1995 à Pékin.
+Al-Kaila est nommée ambassadrice de l'État de Palestine au Chili le 31 octobre 2005. Elle continue à occuper ce poste jusqu'à sa nomination comme ambassadrice de l'État de Palestine en Italie le 1er octobre 2013. Le 4 décembre 2016, elle remporte les élections au Conseil révolutionnaire palestinien, qui se tiennent lors de la septième conférence du Fatah, et en devient membre.
+Le 13 avril 2019, al-Kaila prête serment devant le président palestinien Mahmoud Abbas en tant que ministre de la Santé au sein du gouvernement de Mohammad Chtayyeh. Elle est la première femme a occuper ce poste,.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 2017, Mai al-Kaila reçoit une médaille d'or de l'Académie Norman en coopération avec l'armée de l'air italienne ; cela est dû à son activisme et à sa défense des droits humains palestiniens[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 2017, Mai al-Kaila reçoit une médaille d'or de l'Académie Norman en coopération avec l'armée de l'air italienne ; cela est dû à son activisme et à sa défense des droits humains palestiniens.</t>
         </is>
       </c>
     </row>
